--- a/pdf/[環境準備]LeapMotion.xlsx
+++ b/pdf/[環境準備]LeapMotion.xlsx
@@ -8,6 +8,24 @@
   <manifest:file-entry manifest:full-path="meta.xml" manifest:media-type="text/xml"/>
   <manifest:file-entry manifest:full-path="content.xml" manifest:media-type="text/xml"/>
   <manifest:file-entry manifest:full-path="Thumbnails/thumbnail.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/1000000000000280000002AC030E2974954C7745.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/1000000000000358000001D8934362A1569FF3B7.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000001C7000000970BA9FBDCA05033B6.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000001C40000008E9221199F0A1DB48F.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/1000000000000118000002D4AEC7442A608ACB94.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/100000000000023600000118DC62565BC6278682.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000003E40000036E16E706FAD2EE85F0.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000004AA000002603512D3A854472251.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/100000000000048E0000018802B645C100B292DD.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000002D2000001C202B88756A16E055C.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000002D5000001C2BB1C46D2FD9664E5.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000002D5000001C2EE0C22ECE7229FB7.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000002D5000001C2E3A203D988FBB124.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000002D5000001C269ADF03FDA0C35C0.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000002D5000001C2D7EE6E238D6D2C7C.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000002D5000001C2338B48D0D5F98516.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/100000000000022A0000009C8EC39ADBD307A8D5.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="Pictures/10000000000002FF000002AC967C679E531735FD.png" manifest:media-type="image/png"/>
   <manifest:file-entry manifest:full-path="settings.xml" manifest:media-type="text/xml"/>
 </manifest:manifest>
 </file>
@@ -26,44 +44,1475 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="0.6cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
-      <style:table-row-properties style:row-height="0.573cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="0.785cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro2" style:family="table-row">
       <style:table-row-properties style:row-height="0.529cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
+    <style:style style:name="ro3" style:family="table-row">
+      <style:table-row-properties style:row-height="0.573cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro4" style:family="table-row">
+      <style:table-row-properties style:row-height="1.766cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro5" style:family="table-row">
+      <style:table-row-properties style:row-height="1.498cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro6" style:family="table-row">
+      <style:table-row-properties style:row-height="4.429cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro7" style:family="table-row">
+      <style:table-row-properties style:row-height="0.58cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro8" style:family="table-row">
+      <style:table-row-properties style:row-height="2.057cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro9" style:family="table-row">
+      <style:table-row-properties style:row-height="2.191cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro10" style:family="table-row">
+      <style:table-row-properties style:row-height="0.573cm" fo:break-before="page" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro11" style:family="table-row">
+      <style:table-row-properties style:row-height="1.61cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro12" style:family="table-row">
+      <style:table-row-properties style:row-height="0.737cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro13" style:family="table-row">
+      <style:table-row-properties style:row-height="1.319cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="#3465a4"/>
-      <style:text-properties fo:color="#ffffff" style:font-name="Meiryo UI" fo:font-size="12pt" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-weight-asian="bold" style:font-size-complex="12pt" style:font-weight-complex="bold"/>
+      <style:text-properties fo:color="#ffffff" style:font-name="Meiryo UI" fo:font-size="16pt" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-size-asian="16pt" style:font-weight-asian="bold" style:font-size-complex="16pt" style:font-weight-complex="bold"/>
     </style:style>
     <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties style:font-name="Meiryo UI" fo:font-size="12pt" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-size-complex="12pt"/>
     </style:style>
     <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#3465a4"/>
-      <style:text-properties fo:color="#ffffff" style:font-name="Meiryo UI" fo:font-size="12pt" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-size-complex="12pt"/>
+      <style:text-properties style:font-name="Meiryo UI" fo:font-size="12pt" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-weight-asian="bold" style:font-size-complex="12pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties style:font-name="Meiryo UI" style:font-name-asian="Meiryo UI"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties fo:color="#c9211e" style:font-name="Meiryo UI" fo:font-size="12pt" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-weight-asian="bold" style:font-size-complex="12pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties fo:color="#666666" style:font-name="Meiryo UI" fo:font-size="12pt" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-size-complex="12pt"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#b4c7dc"/>
+      <style:text-properties fo:color="#c9211e" style:font-name="Meiryo UI" fo:font-size="12pt" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-weight-asian="bold" style:font-size-complex="12pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Meiryo UI" fo:font-size="12pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:language-asian="ja" style:country-asian="JP" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="12pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties style:font-name="Meiryo UI" fo:font-size="12pt" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-weight-asian="bold" style:font-size-complex="12pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#b4c7dc"/>
+      <style:text-properties style:font-name="Meiryo UI" fo:font-size="12pt" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-size-complex="12pt"/>
+    </style:style>
+    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties fo:color="#c9211e" style:font-name="Meiryo UI" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties fo:color="#c9211e" style:font-name="Meiryo UI" fo:font-size="10pt" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-size-asian="10pt" style:font-weight-asian="bold" style:font-size-complex="10pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#dee6ef" style:vertical-align="middle"/>
+      <style:text-properties fo:color="#c9211e" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Meiryo UI" fo:font-size="12pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:language-asian="ja" style:country-asian="JP" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Arial" style:font-size-complex="12pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="bold" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#dee6ef"/>
+      <style:text-properties fo:color="#c9211e" style:font-name="Meiryo UI" fo:font-size="12pt" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-weight-asian="bold" style:font-size-complex="12pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties fo:color="#999999" style:font-name="Meiryo UI" fo:font-size="12pt" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-size-complex="12pt"/>
+    </style:style>
+    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#dee6ef"/>
+      <style:text-properties fo:color="#c9211e" fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties fo:color="#2a6099" style:font-name="Meiryo UI" fo:font-size="12pt" fo:font-weight="normal" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-weight-asian="normal" style:font-size-complex="12pt" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties fo:color="#2a6099" style:font-name="Meiryo UI" fo:font-size="12pt" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-weight-asian="bold" style:font-size-complex="12pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce37" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#dee6ef"/>
+      <style:text-properties style:font-name="Meiryo UI" fo:font-size="12pt" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-size-complex="12pt"/>
+    </style:style>
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
+      <style:paragraph-properties fo:text-align="end" fo:margin-left="0cm"/>
+      <style:text-properties fo:color="#2a6099" style:font-name="Meiryo UI" fo:font-size="12pt" fo:font-style="italic" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-style-asian="italic" style:font-weight-asian="bold" style:font-size-complex="12pt" style:font-style-complex="italic" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce39" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center"/>
+      <style:text-properties style:font-name="Meiryo UI" fo:font-size="12pt" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-size-complex="12pt"/>
+    </style:style>
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
+      <style:paragraph-properties fo:text-align="end" fo:margin-left="0cm"/>
+      <style:text-properties fo:color="#2a6099" style:font-name="Meiryo UI" fo:font-size="12pt" fo:font-weight="bold" style:font-name-asian="Meiryo UI" style:font-size-asian="12pt" style:font-weight-asian="bold" style:font-size-complex="12pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="gr1" style:family="graphic">
+      <style:graphic-properties draw:stroke="none" draw:fill-color="#000000" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="0.495cm" fo:min-width="1.547cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr2" style:family="graphic">
+      <style:graphic-properties draw:stroke="dash" draw:stroke-dash="Dash" svg:stroke-width="0.1cm" svg:stroke-color="#2a6099" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="5.331cm" fo:min-width="3.946cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr3" style:family="graphic">
+      <style:graphic-properties draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="8.225cm" fo:min-width="7.111cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr4" style:family="graphic">
+      <style:graphic-properties draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="10.956cm" fo:min-width="19.417cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr5" style:family="graphic">
+      <style:graphic-properties draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="10.182cm" fo:min-width="12.071cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr6" style:family="graphic">
+      <style:graphic-properties draw:stroke="none" draw:fill-color="#808080" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="2.625cm" fo:min-width="3.364cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr7" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#bf0041" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="9.712cm" fo:min-width="4.774cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr8" style:family="graphic">
+      <style:graphic-properties draw:stroke="none" draw:fill-color="#000000" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="0.495cm" fo:min-width="1.235cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr9" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#808080" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="0.629cm" fo:min-width="5.938cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr10" style:family="graphic">
+      <style:graphic-properties draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="8.655cm" fo:min-width="17.005cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr11" style:family="graphic">
+      <style:graphic-properties draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="6.151cm" fo:min-width="18.091cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr12" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#bf0041" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="1.096cm" fo:min-width="8.769cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr13" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#bf0041" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="1.096cm" fo:min-width="8.93cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr14" style:family="graphic">
+      <style:graphic-properties draw:stroke="none" draw:fill-color="#000000" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="0.495cm" fo:min-width="2.911cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr15" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#bf0041" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="1.096cm" fo:min-width="3.163cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr16" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#2a6099" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="1.423cm" fo:min-width="13.852cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr17" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#bf0041" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="0.916cm" fo:min-width="1.288cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr18" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#bf0041" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="1.22cm" fo:min-width="6.702cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr19" style:family="graphic">
+      <style:graphic-properties draw:stroke="none" svg:stroke-color="#000000" draw:fill="none" draw:fill-color="#ffffff" fo:min-height="0.828cm"/>
+      <style:text-properties fo:color="#c9211e" loext:opacity="100%" style:font-name="Meiryo UI" fo:font-size="16pt" fo:font-weight="bold" style:font-size-asian="16pt" style:font-weight-asian="bold" style:font-size-complex="16pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="gr20" style:family="graphic">
+      <style:graphic-properties draw:stroke="none" draw:fill-color="#c9211e" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="0.495cm" fo:min-width="2.162cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr21" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#bf0041" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="0.776cm" fo:min-width="4.968cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr22" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#bf0041" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="1.313cm" fo:min-width="6.599cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr23" style:family="graphic">
+      <style:graphic-properties svg:stroke-color="#000000" draw:fill-color="#000000" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="0.505cm" fo:min-width="7.151cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr24" style:family="graphic">
+      <style:graphic-properties draw:stroke="none" svg:stroke-color="#000000" draw:fill="none" draw:fill-color="#ffffff" fo:min-height="1.148cm"/>
+      <style:paragraph-properties style:writing-mode="lr-tb"/>
+      <style:text-properties fo:color="#c9211e" loext:opacity="100%" fo:font-size="22pt" fo:font-weight="bold" style:font-size-asian="22pt" style:font-weight-asian="bold" style:font-size-complex="22pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="gr25" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#bf0041" draw:marker-start-width="0.35cm" draw:marker-end-width="0.35cm" draw:fill="none" draw:textarea-horizontal-align="justify" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:min-height="0.916cm" fo:min-width="2.614cm" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="gr26" style:family="graphic">
+      <style:graphic-properties draw:stroke="none" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="P1" style:family="paragraph">
+      <loext:graphic-properties draw:fill-color="#000000"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="P2" style:family="paragraph">
+      <loext:graphic-properties draw:fill="none"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="P3" style:family="paragraph">
+      <loext:graphic-properties draw:fill-color="#808080"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="P4" style:family="paragraph">
+      <loext:graphic-properties draw:fill="none" draw:fill-color="#ffffff"/>
+      <style:paragraph-properties style:writing-mode="lr-tb"/>
+      <style:text-properties fo:color="#c9211e" loext:opacity="100%" style:font-name="Meiryo UI" fo:font-size="16pt" fo:font-weight="bold" style:font-size-asian="16pt" style:font-weight-asian="bold" style:font-size-complex="16pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="P5" style:family="paragraph">
+      <loext:graphic-properties draw:fill-color="#c9211e"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="P6" style:family="paragraph">
+      <style:paragraph-properties fo:text-align="start" style:text-autospace="none" style:line-break="normal" style:writing-mode="page"/>
+      <style:text-properties fo:hyphenate="false"/>
+    </style:style>
+    <style:style style:name="P7" style:family="paragraph">
+      <loext:graphic-properties draw:fill="none" draw:fill-color="#ffffff"/>
+      <style:text-properties fo:color="#c9211e" loext:opacity="100%" fo:font-size="22pt" fo:font-weight="bold" style:font-size-asian="22pt" style:font-weight-asian="bold" style:font-size-complex="22pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="T1" style:family="text">
+      <style:text-properties fo:color="#c9211e" loext:opacity="100%" style:font-name="Meiryo UI" fo:font-size="16pt" fo:font-weight="bold" style:font-size-asian="16pt" style:font-weight-asian="bold" style:font-size-complex="16pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="T2" style:family="text">
+      <style:text-properties fo:color="#c9211e" loext:opacity="100%" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Meiryo UI" fo:font-size="22pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Meiryo UI" style:font-size-asian="22pt" style:language-asian="ja" style:country-asian="JP" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Arial" style:font-size-complex="22pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="bold" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="T3" style:family="text">
+      <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="T4" style:family="text">
+      <style:text-properties fo:color="#c9211e" style:font-name="Meiryo UI" fo:font-size="12pt" fo:font-weight="bold" style:text-underline-style="none" style:text-underline-color="font-color" style:text-line-through-type="none" fo:font-style="normal" style:text-outline="false" fo:text-shadow="none" style:text-line-through-mode="continuous" fo:language="en" fo:country="US" style:language-asian="ja" style:country-asian="JP" style:language-complex="hi" style:country-complex="IN" style:font-name-asian="Meiryo UI" style:font-name-complex="Arial" style:font-size-asian="12pt" style:font-size-complex="12pt" style:font-weight-asian="bold" style:font-weight-complex="bold" style:font-style-asian="normal" style:font-style-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="T5" style:family="text">
+      <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold" fo:color="#c9211e"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
     <office:spreadsheet>
-      <table:table table:name="Sheet1" table:style-name="ta1">
+      <table:table table:name="Sheet1" table:style-name="ta1" table:print-ranges="Sheet1.A1:Sheet1.AM44 Sheet1.A45:Sheet1.AM87 Sheet1.A88:Sheet1.AM124 Sheet1.A125:Sheet1.AM225 Sheet1.A226:Sheet1.AM285 Sheet1.A286:Sheet1.AM348">
+        <table:shapes>
+          <draw:custom-shape draw:z-index="2" draw:name="シェイプ 1" draw:style-name="gr1" draw:text-style-name="P1" svg:width="2.356cm" svg:height="1.213cm" draw:transform="rotate (-1.55665915985374) translate (5.228cm 8.07cm)">
+            <text:p/>
+            <draw:enhanced-geometry draw:text-areas="4000 ?f1 ?f5 ?f2" draw:glue-points="0 10800 21600 10800 ?f0 0 ?f0 21600" draw:type="mso-spt100" draw:modifiers="13200 6400 0" draw:enhanced-path="M ?f0 0 L 21600 10800 ?f0 21800 ?f0 ?f2 4000 ?f2 4000 ?f1 ?f0 ?f1 ?f0 0 M 0 ?f1 L 0 ?f2 1000 ?f2 1000 ?f1 0 ?f1 M 2000 ?f1 L 2000 ?f2 3000 ?f2 3000 ?f1 2000 ?f1 Z N">
+              <draw:equation draw:name="f0" draw:formula="$0 "/>
+              <draw:equation draw:name="f1" draw:formula="$1 "/>
+              <draw:equation draw:name="f2" draw:formula="bottom-$1 "/>
+              <draw:equation draw:name="f3" draw:formula="right-$0 "/>
+              <draw:equation draw:name="f4" draw:formula="?f3 *$1 /10800"/>
+              <draw:equation draw:name="f5" draw:formula="$0 +?f4 "/>
+              <draw:handle draw:handle-position="$0 $1" draw:handle-range-x-minimum="4000" draw:handle-range-x-maximum="21600" draw:handle-range-y-minimum="0" draw:handle-range-y-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="7" draw:name="シェイプ 4" draw:style-name="gr2" draw:text-style-name="P2" svg:width="4.482cm" svg:height="5.867cm" svg:x="2.722cm" svg:y="48.905cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="9" draw:name="シェイプ 6" draw:style-name="gr3" draw:text-style-name="P2" svg:width="7.111cm" svg:height="8.225cm" svg:x="1.885cm" svg:y="57.094cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:type="rectangle" draw:enhanced-path="M 0 0 L 21600 0 21600 21600 0 21600 0 0 Z N"/>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="10" draw:name="シェイプ 7" draw:style-name="gr4" draw:text-style-name="P2" svg:width="19.417cm" svg:height="10.956cm" svg:x="1.78cm" svg:y="44.966cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:type="rectangle" draw:enhanced-path="M 0 0 L 21600 0 21600 21600 0 21600 0 0 Z N"/>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="12" draw:name="シェイプ 8" draw:style-name="gr5" draw:text-style-name="P2" svg:width="12.071cm" svg:height="10.182cm" svg:x="9.011cm" svg:y="65.968cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:type="rectangle" draw:enhanced-path="M 0 0 L 21600 0 21600 21600 0 21600 0 0 Z N"/>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="13" draw:name="シェイプ 9" draw:style-name="gr6" draw:text-style-name="P3" svg:width="3.363cm" svg:height="2.624cm" draw:transform="rotate (-0.747349985703972) translate (9.536cm 60.896cm)">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:text-areas="0 0 21600 21600" draw:type="circular-arrow" draw:modifiers="180 0 5500" draw:enhanced-path="B ?f3 ?f3 ?f20 ?f20 ?f19 ?f18 ?f17 ?f16 W 0 0 21600 21600 ?f9 ?f8 ?f11 ?f10 L ?f24 ?f23 ?f36 ?f35 ?f29 ?f28 Z N">
+              <draw:equation draw:name="f0" draw:formula="$0 "/>
+              <draw:equation draw:name="f1" draw:formula="$1 "/>
+              <draw:equation draw:name="f2" draw:formula="$2 "/>
+              <draw:equation draw:name="f3" draw:formula="10800+$2 "/>
+              <draw:equation draw:name="f4" draw:formula="10800*sin($0 *(pi/180))"/>
+              <draw:equation draw:name="f5" draw:formula="10800*cos($0 *(pi/180))"/>
+              <draw:equation draw:name="f6" draw:formula="10800*sin($1 *(pi/180))"/>
+              <draw:equation draw:name="f7" draw:formula="10800*cos($1 *(pi/180))"/>
+              <draw:equation draw:name="f8" draw:formula="?f4 +10800"/>
+              <draw:equation draw:name="f9" draw:formula="?f5 +10800"/>
+              <draw:equation draw:name="f10" draw:formula="?f6 +10800"/>
+              <draw:equation draw:name="f11" draw:formula="?f7 +10800"/>
+              <draw:equation draw:name="f12" draw:formula="?f3 *sin($0 *(pi/180))"/>
+              <draw:equation draw:name="f13" draw:formula="?f3 *cos($0 *(pi/180))"/>
+              <draw:equation draw:name="f14" draw:formula="?f3 *sin($1 *(pi/180))"/>
+              <draw:equation draw:name="f15" draw:formula="?f3 *cos($1 *(pi/180))"/>
+              <draw:equation draw:name="f16" draw:formula="?f12 +10800"/>
+              <draw:equation draw:name="f17" draw:formula="?f13 +10800"/>
+              <draw:equation draw:name="f18" draw:formula="?f14 +10800"/>
+              <draw:equation draw:name="f19" draw:formula="?f15 +10800"/>
+              <draw:equation draw:name="f20" draw:formula="21600-?f3 "/>
+              <draw:equation draw:name="f21" draw:formula="13500*sin($1 *(pi/180))"/>
+              <draw:equation draw:name="f22" draw:formula="13500*cos($1 *(pi/180))"/>
+              <draw:equation draw:name="f23" draw:formula="?f21 +10800"/>
+              <draw:equation draw:name="f24" draw:formula="?f22 +10800"/>
+              <draw:equation draw:name="f25" draw:formula="$2 -2700"/>
+              <draw:equation draw:name="f26" draw:formula="?f25 *sin($1 *(pi/180))"/>
+              <draw:equation draw:name="f27" draw:formula="?f25 *cos($1 *(pi/180))"/>
+              <draw:equation draw:name="f28" draw:formula="?f26 +10800"/>
+              <draw:equation draw:name="f29" draw:formula="?f27 +10800"/>
+              <draw:equation draw:name="f30" draw:formula="($1+45)*pi/180"/>
+              <draw:equation draw:name="f31" draw:formula="sqrt(((?f29-?f24)*(?f29-?f24))+((?f28-?f23)*(?f28-?f23)))"/>
+              <draw:equation draw:name="f32" draw:formula="sqrt(2)/2*?f31"/>
+              <draw:equation draw:name="f33" draw:formula="?f32*sin(?f30)"/>
+              <draw:equation draw:name="f34" draw:formula="?f32*cos(?f30)"/>
+              <draw:equation draw:name="f35" draw:formula="?f28+?f33"/>
+              <draw:equation draw:name="f36" draw:formula="?f29+?f34"/>
+              <draw:handle draw:handle-position="10800 $0" draw:handle-polar="10800 10800" draw:handle-radius-range-minimum="10800" draw:handle-radius-range-maximum="10800"/>
+              <draw:handle draw:handle-position="$2 $1" draw:handle-polar="10800 10800" draw:handle-radius-range-minimum="0" draw:handle-radius-range-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="14" draw:name="シェイプ 10" draw:style-name="gr7" draw:text-style-name="P2" svg:width="5.4cm" svg:height="10.338cm" svg:x="15.122cm" svg:y="65.867cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="15" draw:name="シェイプ 11" draw:style-name="gr8" draw:text-style-name="P1" svg:width="1.881cm" svg:height="1.213cm" draw:transform="rotate (-1.55665915985374) translate (3.611cm 74.338cm)">
+            <text:p/>
+            <draw:enhanced-geometry draw:text-areas="4000 ?f1 ?f5 ?f2" draw:glue-points="0 10800 21600 10800 ?f0 0 ?f0 21600" draw:type="mso-spt100" draw:modifiers="13200 6400 0" draw:enhanced-path="M ?f0 0 L 21600 10800 ?f0 21800 ?f0 ?f2 4000 ?f2 4000 ?f1 ?f0 ?f1 ?f0 0 M 0 ?f1 L 0 ?f2 1000 ?f2 1000 ?f1 0 ?f1 M 2000 ?f1 L 2000 ?f2 3000 ?f2 3000 ?f1 2000 ?f1 Z N">
+              <draw:equation draw:name="f0" draw:formula="$0 "/>
+              <draw:equation draw:name="f1" draw:formula="$1 "/>
+              <draw:equation draw:name="f2" draw:formula="bottom-$1 "/>
+              <draw:equation draw:name="f3" draw:formula="right-$0 "/>
+              <draw:equation draw:name="f4" draw:formula="?f3 *$1 /10800"/>
+              <draw:equation draw:name="f5" draw:formula="$0 +?f4 "/>
+              <draw:handle draw:handle-position="$0 $1" draw:handle-range-x-minimum="4000" draw:handle-range-x-maximum="21600" draw:handle-range-y-minimum="0" draw:handle-range-y-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="17" draw:name="シェイプ 12" draw:style-name="gr9" draw:text-style-name="P2" svg:width="6.116cm" svg:height="0.807cm" svg:x="2.164cm" svg:y="80.253cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="18" draw:name="シェイプ 13" draw:style-name="gr10" draw:text-style-name="P2" svg:width="17.005cm" svg:height="8.655cm" svg:x="1.929cm" svg:y="78.169cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:type="rectangle" draw:enhanced-path="M 0 0 L 21600 0 21600 21600 0 21600 0 0 Z N"/>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="19" draw:name="シェイプ 14" draw:style-name="gr8" draw:text-style-name="P1" svg:width="1.881cm" svg:height="1.213cm" draw:transform="rotate (-1.55665915985374) translate (4.447cm 87.597cm)">
+            <text:p/>
+            <draw:enhanced-geometry draw:text-areas="4000 ?f1 ?f5 ?f2" draw:glue-points="0 10800 21600 10800 ?f0 0 ?f0 21600" draw:type="mso-spt100" draw:modifiers="13200 6400 0" draw:enhanced-path="M ?f0 0 L 21600 10800 ?f0 21800 ?f0 ?f2 4000 ?f2 4000 ?f1 ?f0 ?f1 ?f0 0 M 0 ?f1 L 0 ?f2 1000 ?f2 1000 ?f1 0 ?f1 M 2000 ?f1 L 2000 ?f2 3000 ?f2 3000 ?f1 2000 ?f1 Z N">
+              <draw:equation draw:name="f0" draw:formula="$0 "/>
+              <draw:equation draw:name="f1" draw:formula="$1 "/>
+              <draw:equation draw:name="f2" draw:formula="bottom-$1 "/>
+              <draw:equation draw:name="f3" draw:formula="right-$0 "/>
+              <draw:equation draw:name="f4" draw:formula="?f3 *$1 /10800"/>
+              <draw:equation draw:name="f5" draw:formula="$0 +?f4 "/>
+              <draw:handle draw:handle-position="$0 $1" draw:handle-range-x-minimum="4000" draw:handle-range-x-maximum="21600" draw:handle-range-y-minimum="0" draw:handle-range-y-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="20" draw:name="シェイプ 15" draw:style-name="gr11" draw:text-style-name="P2" svg:width="18.091cm" svg:height="6.151cm" svg:x="1.671cm" svg:y="91.767cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:type="rectangle" draw:enhanced-path="M 0 0 L 21600 0 21600 21600 0 21600 0 0 Z N"/>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="21" draw:name="シェイプ 16" draw:style-name="gr12" draw:text-style-name="P2" svg:width="8.997cm" svg:height="1.324cm" svg:x="0.947cm" svg:y="85.749cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="28" draw:name="シェイプ 17" draw:style-name="gr13" draw:text-style-name="P2" svg:width="9.158cm" svg:height="1.324cm" svg:x="4.89cm" svg:y="93.909cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="29" draw:name="シェイプ 5" draw:style-name="gr14" draw:text-style-name="P1" svg:width="4.434cm" svg:height="1.213cm" draw:transform="rotate (-1.55665915985374) translate (12.812cm 95.339cm)">
+            <text:p/>
+            <draw:enhanced-geometry draw:text-areas="4000 ?f1 ?f5 ?f2" draw:glue-points="0 10800 21600 10800 ?f0 0 ?f0 21600" draw:type="mso-spt100" draw:modifiers="13200 6400 0" draw:enhanced-path="M ?f0 0 L 21600 10800 ?f0 21800 ?f0 ?f2 4000 ?f2 4000 ?f1 ?f0 ?f1 ?f0 0 M 0 ?f1 L 0 ?f2 1000 ?f2 1000 ?f1 0 ?f1 M 2000 ?f1 L 2000 ?f2 3000 ?f2 3000 ?f1 2000 ?f1 Z N">
+              <draw:equation draw:name="f0" draw:formula="$0 "/>
+              <draw:equation draw:name="f1" draw:formula="$1 "/>
+              <draw:equation draw:name="f2" draw:formula="bottom-$1 "/>
+              <draw:equation draw:name="f3" draw:formula="right-$0 "/>
+              <draw:equation draw:name="f4" draw:formula="?f3 *$1 /10800"/>
+              <draw:equation draw:name="f5" draw:formula="$0 +?f4 "/>
+              <draw:handle draw:handle-position="$0 $1" draw:handle-range-x-minimum="4000" draw:handle-range-x-maximum="21600" draw:handle-range-y-minimum="0" draw:handle-range-y-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="30" draw:name="シェイプ 18" draw:style-name="gr15" draw:text-style-name="P2" svg:width="3.391cm" svg:height="1.324cm" svg:x="11.293cm" svg:y="107.076cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="31" draw:name="シェイプ 19" draw:style-name="gr8" draw:text-style-name="P1" svg:width="1.881cm" svg:height="1.213cm" draw:transform="rotate (-1.55665915985374) translate (13.407cm 108.12cm)">
+            <text:p/>
+            <draw:enhanced-geometry draw:text-areas="4000 ?f1 ?f5 ?f2" draw:glue-points="0 10800 21600 10800 ?f0 0 ?f0 21600" draw:type="mso-spt100" draw:modifiers="13200 6400 0" draw:enhanced-path="M ?f0 0 L 21600 10800 ?f0 21800 ?f0 ?f2 4000 ?f2 4000 ?f1 ?f0 ?f1 ?f0 0 M 0 ?f1 L 0 ?f2 1000 ?f2 1000 ?f1 0 ?f1 M 2000 ?f1 L 2000 ?f2 3000 ?f2 3000 ?f1 2000 ?f1 Z N">
+              <draw:equation draw:name="f0" draw:formula="$0 "/>
+              <draw:equation draw:name="f1" draw:formula="$1 "/>
+              <draw:equation draw:name="f2" draw:formula="bottom-$1 "/>
+              <draw:equation draw:name="f3" draw:formula="right-$0 "/>
+              <draw:equation draw:name="f4" draw:formula="?f3 *$1 /10800"/>
+              <draw:equation draw:name="f5" draw:formula="$0 +?f4 "/>
+              <draw:handle draw:handle-position="$0 $1" draw:handle-range-x-minimum="4000" draw:handle-range-x-maximum="21600" draw:handle-range-y-minimum="0" draw:handle-range-y-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="32" draw:name="シェイプ 20" draw:style-name="gr15" draw:text-style-name="P2" svg:width="3.391cm" svg:height="1.324cm" svg:x="11.303cm" svg:y="118.434cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="33" draw:name="シェイプ 22" draw:style-name="gr16" draw:text-style-name="P2" svg:width="14.116cm" svg:height="1.687cm" svg:x="2.346cm" svg:y="125.916cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="34" draw:name="シェイプ 23" draw:style-name="gr15" draw:text-style-name="P2" svg:width="3.391cm" svg:height="1.324cm" svg:x="11.395cm" svg:y="129.28cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="35" draw:name="シェイプ 24" draw:style-name="gr8" draw:text-style-name="P1" svg:width="1.881cm" svg:height="1.213cm" draw:transform="rotate (-1.55665915985374) translate (13.609cm 119.524cm)">
+            <text:p/>
+            <draw:enhanced-geometry draw:text-areas="4000 ?f1 ?f5 ?f2" draw:glue-points="0 10800 21600 10800 ?f0 0 ?f0 21600" draw:type="mso-spt100" draw:modifiers="13200 6400 0" draw:enhanced-path="M ?f0 0 L 21600 10800 ?f0 21800 ?f0 ?f2 4000 ?f2 4000 ?f1 ?f0 ?f1 ?f0 0 M 0 ?f1 L 0 ?f2 1000 ?f2 1000 ?f1 0 ?f1 M 2000 ?f1 L 2000 ?f2 3000 ?f2 3000 ?f1 2000 ?f1 Z N">
+              <draw:equation draw:name="f0" draw:formula="$0 "/>
+              <draw:equation draw:name="f1" draw:formula="$1 "/>
+              <draw:equation draw:name="f2" draw:formula="bottom-$1 "/>
+              <draw:equation draw:name="f3" draw:formula="right-$0 "/>
+              <draw:equation draw:name="f4" draw:formula="?f3 *$1 /10800"/>
+              <draw:equation draw:name="f5" draw:formula="$0 +?f4 "/>
+              <draw:handle draw:handle-position="$0 $1" draw:handle-range-x-minimum="4000" draw:handle-range-x-maximum="21600" draw:handle-range-y-minimum="0" draw:handle-range-y-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="36" draw:name="シェイプ 25" draw:style-name="gr15" draw:text-style-name="P2" svg:width="3.391cm" svg:height="1.324cm" svg:x="11.232cm" svg:y="139.646cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="37" draw:name="シェイプ 26" draw:style-name="gr8" draw:text-style-name="P1" svg:width="1.881cm" svg:height="1.213cm" draw:transform="rotate (-1.55665915985374) translate (13.346cm 140.89cm)">
+            <text:p/>
+            <draw:enhanced-geometry draw:text-areas="4000 ?f1 ?f5 ?f2" draw:glue-points="0 10800 21600 10800 ?f0 0 ?f0 21600" draw:type="mso-spt100" draw:modifiers="13200 6400 0" draw:enhanced-path="M ?f0 0 L 21600 10800 ?f0 21800 ?f0 ?f2 4000 ?f2 4000 ?f1 ?f0 ?f1 ?f0 0 M 0 ?f1 L 0 ?f2 1000 ?f2 1000 ?f1 0 ?f1 M 2000 ?f1 L 2000 ?f2 3000 ?f2 3000 ?f1 2000 ?f1 Z N">
+              <draw:equation draw:name="f0" draw:formula="$0 "/>
+              <draw:equation draw:name="f1" draw:formula="$1 "/>
+              <draw:equation draw:name="f2" draw:formula="bottom-$1 "/>
+              <draw:equation draw:name="f3" draw:formula="right-$0 "/>
+              <draw:equation draw:name="f4" draw:formula="?f3 *$1 /10800"/>
+              <draw:equation draw:name="f5" draw:formula="$0 +?f4 "/>
+              <draw:handle draw:handle-position="$0 $1" draw:handle-range-x-minimum="4000" draw:handle-range-x-maximum="21600" draw:handle-range-y-minimum="0" draw:handle-range-y-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="39" draw:name="シェイプ 27" draw:style-name="gr15" draw:text-style-name="P2" svg:width="3.391cm" svg:height="1.324cm" svg:x="11.28cm" svg:y="150.32cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="41" draw:name="シェイプ 28" draw:style-name="gr17" draw:text-style-name="P2" svg:width="1.498cm" svg:height="1.126cm" svg:x="5.722cm" svg:y="178.118cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="42" draw:name="シェイプ 29" draw:style-name="gr18" draw:text-style-name="P2" svg:width="6.944cm" svg:height="1.462cm" svg:x="7.289cm" svg:y="176.399cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:frame draw:z-index="43" draw:name="テキスト枠 1" draw:style-name="gr19" draw:text-style-name="P4" svg:width="1.061cm" svg:height="0.828cm" svg:x="4.99cm" svg:y="178.513cm">
+            <draw:text-box>
+              <text:p>
+                <text:span text:style-name="T1">①</text:span>
+              </text:p>
+            </draw:text-box>
+          </draw:frame>
+          <draw:frame draw:z-index="44" draw:name="テキスト枠 2" draw:style-name="gr19" draw:text-style-name="P4" svg:width="1.061cm" svg:height="0.828cm" svg:x="13.909cm" svg:y="175.796cm">
+            <draw:text-box>
+              <text:p>
+                <text:span text:style-name="T1">
+                  <text:s/>
+                  ②
+                </text:span>
+              </text:p>
+            </draw:text-box>
+          </draw:frame>
+          <draw:custom-shape draw:z-index="46" draw:name="シェイプ 30" draw:style-name="gr20" draw:text-style-name="P5" svg:width="3.293cm" svg:height="1.213cm" draw:transform="rotate (-1.55665915985374) translate (8.523cm 178.269cm)">
+            <text:p/>
+            <draw:enhanced-geometry draw:text-areas="4000 ?f1 ?f5 ?f2" draw:glue-points="0 10800 21600 10800 ?f0 0 ?f0 21600" draw:type="mso-spt100" draw:modifiers="13200 6400 0" draw:enhanced-path="M ?f0 0 L 21600 10800 ?f0 21800 ?f0 ?f2 4000 ?f2 4000 ?f1 ?f0 ?f1 ?f0 0 M 0 ?f1 L 0 ?f2 1000 ?f2 1000 ?f1 0 ?f1 M 2000 ?f1 L 2000 ?f2 3000 ?f2 3000 ?f1 2000 ?f1 Z N">
+              <draw:equation draw:name="f0" draw:formula="$0 "/>
+              <draw:equation draw:name="f1" draw:formula="$1 "/>
+              <draw:equation draw:name="f2" draw:formula="bottom-$1 "/>
+              <draw:equation draw:name="f3" draw:formula="right-$0 "/>
+              <draw:equation draw:name="f4" draw:formula="?f3 *$1 /10800"/>
+              <draw:equation draw:name="f5" draw:formula="$0 +?f4 "/>
+              <draw:handle draw:handle-position="$0 $1" draw:handle-range-x-minimum="4000" draw:handle-range-x-maximum="21600" draw:handle-range-y-minimum="0" draw:handle-range-y-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="47" draw:name="シェイプ 2" draw:style-name="gr21" draw:text-style-name="P2" svg:width="5.162cm" svg:height="0.97cm" svg:x="1.591cm" svg:y="33.378cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="48" draw:name="シェイプ 3" draw:style-name="gr22" draw:text-style-name="P2" svg:width="6.851cm" svg:height="1.565cm" svg:x="1.823cm" svg:y="52.839cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+          <draw:custom-shape draw:z-index="49" draw:name="シェイプ 21" draw:style-name="gr23" draw:text-style-name="P1" svg:width="7.151cm" svg:height="0.505cm" svg:x="2.768cm" svg:y="74.249cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:type="rectangle" draw:enhanced-path="M 0 0 L 21600 0 21600 21600 0 21600 0 0 Z N"/>
+          </draw:custom-shape>
+          <draw:frame draw:z-index="50" draw:name="テキスト枠 3" draw:style-name="gr24" draw:text-style-name="P7" svg:width="3.621cm" svg:height="1.148cm" svg:x="12.639cm" svg:y="92.847cm">
+            <draw:text-box>
+              <text:p text:style-name="P6">
+                <text:span text:style-name="T2">Click!</text:span>
+              </text:p>
+            </draw:text-box>
+          </draw:frame>
+          <draw:custom-shape draw:z-index="51" draw:name="シェイプ 31" draw:style-name="gr25" draw:text-style-name="P2" svg:width="2.824cm" svg:height="1.126cm" svg:x="11.592cm" svg:y="172.105cm">
+            <text:p/>
+            <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:path-stretchpoint-x="10800" draw:path-stretchpoint-y="10800" draw:text-areas="?f3 ?f4 ?f5 ?f6" draw:type="round-rectangle" draw:modifiers="3600" draw:enhanced-path="M ?f7 0 X 0 ?f8 L 0 ?f9 Y ?f7 21600 L ?f10 21600 X 21600 ?f9 L 21600 ?f8 Y ?f10 0 Z N">
+              <draw:equation draw:name="f0" draw:formula="45"/>
+              <draw:equation draw:name="f1" draw:formula="$0 *sin(?f0 *(pi/180))"/>
+              <draw:equation draw:name="f2" draw:formula="?f1 *3163/7636"/>
+              <draw:equation draw:name="f3" draw:formula="left+?f2 "/>
+              <draw:equation draw:name="f4" draw:formula="top+?f2 "/>
+              <draw:equation draw:name="f5" draw:formula="right-?f2 "/>
+              <draw:equation draw:name="f6" draw:formula="bottom-?f2 "/>
+              <draw:equation draw:name="f7" draw:formula="left+$0 "/>
+              <draw:equation draw:name="f8" draw:formula="top+$0 "/>
+              <draw:equation draw:name="f9" draw:formula="bottom-$0 "/>
+              <draw:equation draw:name="f10" draw:formula="right-$0 "/>
+              <draw:handle draw:handle-position="$0 top" draw:handle-switched="true" draw:handle-range-x-minimum="0" draw:handle-range-x-maximum="10800"/>
+            </draw:enhanced-geometry>
+          </draw:custom-shape>
+        </table:shapes>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="ce2"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
-            <text:p>■LeapMotionを動かす環境準備</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
+            <text:p>■LeapMotionを動かす準備の手順</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>leapMotionのインストールまでの手順です。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>LeapMotion本体のUSBケーブルを端末に差し込むと、Windowsでは自動的にドライバソフトウェアが</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>インストールされます。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>次のように、セットアップが開始、終了メッセージが端末画面に表示されます。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="1" draw:name="画像 1" draw:style-name="gr26" draw:text-style-name="P2" svg:width="11.825cm" svg:height="3.713cm" svg:x="0.378cm" svg:y="0.022cm">
+              <draw:image xlink:href="Pictures/10000000000001C40000008E9221199F0A1DB48F.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="7">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="5" draw:name="画像 2" draw:style-name="gr26" draw:text-style-name="P2" svg:width="11.888cm" svg:height="3.944cm" svg:x="0.378cm" svg:y="0.338cm">
+              <draw:image xlink:href="Pictures/10000000000001C7000000970BA9FBDCA05033B6.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="4">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>②次のURLにアクセスして、専用の開発ツールをダウンロードします。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+            <text:p>https://developer.leapmotion.com/</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="3" draw:name="画像 3" draw:style-name="gr26" draw:text-style-name="P2" svg:width="19.602cm" svg:height="9.696cm" svg:x="-0.001cm" svg:y="0.485cm">
+              <draw:image xlink:href="Pictures/100000000000023600000118DC62565BC6278682.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="5">
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro6">
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="5">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">※言語選択で日本語表示の切り替えことはできますが、ものづくりの材料調達で『ここは日本語非対応だから』の理由で</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="35"/>
+          <table:table-cell table:number-columns-repeated="985"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">選択を絞るのはもったいないです。英語仕様になれる習慣をつけておきましょう。</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="35"/>
+          <table:table-cell table:number-columns-repeated="985"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>（授業でカタカナIT用語には慣れているので、読めば意外と読めるものです。）</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="35"/>
+          <table:table-cell table:number-columns-repeated="985"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="4" draw:name="画像 4" draw:style-name="gr26" draw:text-style-name="P2" svg:width="4.933cm" svg:height="12.758cm" svg:x="0.542cm" svg:y="0.544cm">
+              <draw:image xlink:href="Pictures/1000000000000118000002D4AEC7442A608ACB94.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              左メニューの『
+              <text:span text:style-name="T3">Tracking Software Download</text:span>
+              』をクリックします。
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="4"/>
+          <table:table-cell table:number-columns-repeated="1009"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="3"/>
+          <table:table-cell table:number-columns-repeated="1009"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro7">
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+            <text:p>⇒遷移先URL</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" table:number-columns-repeated="2"/>
+          <table:table-cell table:number-columns-repeated="1009"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:style-name="ce29"/>
+          <table:table-cell table:style-name="ce30" office:value-type="string" calcext:value-type="string">
+            <text:p>https://developer.leapmotion.com/tracking-software-download</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1009"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="7">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro8">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="6">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>次に、該当するOSを選択します。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              (Windowsなら)赤枠『
+              <text:span text:style-name="T3">DOWNLOAD GEMINI</text:span>
+              』のボタンをクリックします。
+              <text:span text:style-name="T5">※利用するOS毎に選択のこと。</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce4">
+            <draw:frame draw:z-index="6" draw:name="画像 5" draw:style-name="gr26" draw:text-style-name="P2" svg:width="19.334cm" svg:height="10.661cm" svg:x="0.087cm" svg:y="0.336cm">
+              <draw:image xlink:href="Pictures/1000000000000358000001D8934362A1569FF3B7.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro9">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="15">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro10">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T3">ultraleap</text:span>
+              サイトへのログインが、求められます。
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce4">
+            <draw:frame draw:z-index="8" draw:name="画像 6" draw:style-name="gr26" draw:text-style-name="P2" svg:width="8.215cm" svg:height="8.78cm" svg:x="0.043cm" svg:y="0.027cm">
+              <draw:image xlink:href="Pictures/1000000000000280000002AC030E2974954C7745.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="8">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro11">
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string" calcext:value-type="string">
+            <text:p>自動遷移します・・</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro7">
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string" calcext:value-type="string">
+            <text:p>(ユーザ未登録なら)登録します。※無料</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro12">
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce31" office:value-type="string" calcext:value-type="string">
+            <text:p>　※別端末での接続時に備えて、ユーザ情報は保存しましょう。</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce32" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce34"/>
+          <table:table-cell table:style-name="ce32" table:number-columns-repeated="18"/>
+          <table:table-cell table:number-columns-repeated="985"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="11" draw:name="画像 7" draw:style-name="gr26" draw:text-style-name="P2" svg:width="10.926cm" svg:height="9.631cm" svg:x="0.033cm" svg:y="0.183cm">
+              <draw:image xlink:href="Pictures/10000000000003E40000036E16E706FAD2EE85F0.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="8">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro13">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="8">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ログインすると、SDK利用規約の画面に遷移します。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              一読の上、問題なければ『同意＝
+              <text:span text:style-name="T3">YES</text:span>
+              』に、チェックします。
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce4">
+            <draw:frame draw:z-index="16" draw:name="画像 8" draw:style-name="gr26" draw:text-style-name="P2" svg:width="17.045cm" svg:height="8.679cm" svg:x="0.194cm" svg:y="0.201cm">
+              <draw:image xlink:href="Pictures/10000000000004AA000002603512D3A854472251.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="17">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ダウンロードが開始します。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              『
+              <text:span text:style-name="T3">Ultraleap_Tracking_Installer_5.2.0_win64.exe</text:span>
+              』のダウンロード完了を待ちます。
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+            <text:p>※2021年冬の時点でのバージョン番号。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>③上記②にてダウンロードしたインストーラを、実行します。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="0" draw:name="画像 9" draw:style-name="gr26" draw:text-style-name="P2" svg:width="18.057cm" svg:height="6.07cm" svg:x="0.479cm" svg:y="0.043cm">
+              <draw:image xlink:href="Pictures/100000000000048E0000018802B645C100B292DD.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="11">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce4">
+            <draw:frame draw:z-index="22" draw:name="画像 10" draw:style-name="gr26" draw:text-style-name="P2" svg:width="15.282cm" svg:height="9.524cm" svg:x="0.514cm" svg:y="0.257cm">
+              <draw:image xlink:href="Pictures/10000000000002D2000001C202B88756A16E055C.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="20">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="23" draw:name="画像 11" draw:style-name="gr26" draw:text-style-name="P2" svg:width="15.346cm" svg:height="9.524cm" svg:x="0.581cm" svg:y="0.446cm">
+              <draw:image xlink:href="Pictures/10000000000002D5000001C2BB1C46D2FD9664E5.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="20">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="24" draw:name="画像 12" draw:style-name="gr26" draw:text-style-name="P2" svg:width="15.346cm" svg:height="9.524cm" svg:x="0.489cm" svg:y="0.113cm">
+              <draw:image xlink:href="Pictures/10000000000002D5000001C2EE0C22ECE7229FB7.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="9">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="29"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce17" office:value-type="string" calcext:value-type="string">
+            <text:p>※インストール先は選択可能。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="986"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="29"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce17"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce18" office:value-type="string" calcext:value-type="string">
+            <text:p>格納先は記憶しておこう！</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="986"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="29"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="29"/>
+          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="6">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="25" draw:name="画像 13" draw:style-name="gr26" draw:text-style-name="P2" svg:width="15.346cm" svg:height="9.524cm" svg:x="0.464cm" svg:y="0.144cm">
+              <draw:image xlink:href="Pictures/10000000000002D5000001C2E3A203D988FBB124.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="19">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="26" draw:name="画像 14" draw:style-name="gr26" draw:text-style-name="P2" svg:width="15.346cm" svg:height="9.524cm" svg:x="0.471cm" svg:y="0.113cm">
+              <draw:image xlink:href="Pictures/10000000000002D5000001C269ADF03FDA0C35C0.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="8">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro7">
+          <table:table-cell table:number-columns-repeated="29"/>
+          <table:table-cell table:style-name="ce32" office:value-type="string" calcext:value-type="string">
+            <text:p>※SDKは、バージョン指定の</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce37" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="985"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="29"/>
+          <table:table-cell table:style-name="ce32" office:value-type="string" calcext:value-type="string">
+            <text:p>ため、別工程で入手します。</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce37" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="985"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="8">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="27" draw:name="画像 15" draw:style-name="gr26" draw:text-style-name="P2" svg:width="15.346cm" svg:height="9.524cm" svg:x="0.431cm" svg:y="0.461cm">
+              <draw:image xlink:href="Pictures/10000000000002D5000001C2D7EE6E238D6D2C7C.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="13">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="36"/>
+          <table:table-cell table:style-name="ce39" table:number-columns-spanned="2" table:number-rows-spanned="1"/>
+          <table:covered-table-cell/>
+          <table:table-cell table:number-columns-repeated="986"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="5">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
+            <text:p>インストール完了まで数分待ちます。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="38" draw:name="画像 16" draw:style-name="gr26" draw:text-style-name="P2" svg:width="15.346cm" svg:height="9.524cm" svg:x="0cm" svg:y="0.006cm">
+              <draw:image xlink:href="Pictures/10000000000002D5000001C2338B48D0D5F98516.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="18">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              インストールの完了ウィザードが出たら、『
+              <text:span text:style-name="T3">完了</text:span>
+              』ボタンをクリックします。
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ツールキッドをダウンロードする</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1022"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="1048573">
+            <text:p>　</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              ④画面下のタスクバーにて、『
+              <text:span text:style-name="T3">Ultraleap tracking device</text:span>
+              』のタスクを確認しましょう。
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell>
+            <draw:frame draw:z-index="40" draw:name="画像 17" draw:style-name="gr26" draw:text-style-name="P2" svg:width="11.726cm" svg:height="3.301cm" svg:x="0.5cm" svg:y="0.478cm">
+              <draw:image xlink:href="Pictures/100000000000022A0000009C8EC39ADBD307A8D5.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="25"/>
+          <table:table-cell table:style-name="ce16" office:value-type="string" calcext:value-type="string">
+            <text:p>デバイスアイコンに、カーソルをあてると</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="24"/>
+          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell table:style-name="ce16" office:value-type="string" calcext:value-type="string">
+            <text:p>デバイス情報が表示される。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="ce15" office:value-type="string" calcext:value-type="string">
+            <text:p>※LeapMotionが正常に接続状態なら、</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="ce15" office:value-type="string" calcext:value-type="string">
+            <text:p>『...connected』と表示される。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+            <text:p>デバイスをクリック⇒Leap Motionのコントロールパネルが表示されば成功！</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1009"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce9">
+            <draw:frame draw:z-index="45" draw:name="画像 18" draw:style-name="gr26" draw:text-style-name="P2" svg:width="16.235cm" svg:height="14.478cm" svg:x="0.046cm" svg:y="0.35cm">
+              <draw:image xlink:href="Pictures/10000000000002FF000002AC967C679E531735FD.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad" draw:mime-type="image/png">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="7">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell table:number-columns-repeated="991"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="20">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>⑤LeapMotionのインストールは完了です。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="1048227">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
@@ -79,11 +1528,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" office:version="1.3">
   <office:meta>
-    <dc:date>2021-11-06T08:39:50.285000000</dc:date>
-    <meta:editing-duration>PT2M16S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="2" meta:object-count="0"/>
+    <dc:date>2021-11-07T08:23:10.160000000</dc:date>
+    <meta:editing-duration>PT8H11M1S</meta:editing-duration>
+    <meta:editing-cycles>131</meta:editing-cycles>
     <meta:generator>LibreOffice/7.2.2.2$Windows_X86_64 LibreOffice_project/02b2acce88a210515b4a5bb2e46cbfb63fe97d56</meta:generator>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="39" meta:object-count="52"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -94,15 +1543,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">1199</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">1102</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">23389</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">196770</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">34</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">128</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -111,10 +1560,10 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">110</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
-              <config:config-item config:name="PageViewZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">95</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">false</config:config-item>
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
@@ -123,7 +1572,7 @@
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1851</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
-          <config:config-item config:name="PageViewZoomValue" config:type="int">100</config:config-item>
+          <config:config-item config:name="PageViewZoomValue" config:type="int">95</config:config-item>
           <config:config-item config:name="ShowPageBreakPreview" config:type="boolean">true</config:config-item>
           <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
           <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
@@ -204,6 +1653,13 @@
       <style:paragraph-properties style:tab-stop-distance="1.25cm"/>
       <style:text-properties style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" style:font-name-asian="游ゴシック" style:font-size-asian="10pt" style:language-asian="ja" style:country-asian="JP" style:font-name-complex="Arial" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN"/>
     </style:default-style>
+    <style:default-style style:family="graphic">
+      <style:graphic-properties svg:stroke-color="#3465a4" draw:fill-color="#729fcf" fo:wrap-option="no-wrap" draw:shadow-offset-x="0.3cm" draw:shadow-offset-y="0.3cm"/>
+      <style:paragraph-properties style:text-autospace="none" style:punctuation-wrap="simple" style:line-break="strict" style:writing-mode="page" style:font-independent-line-spacing="false">
+        <style:tab-stops/>
+      </style:paragraph-properties>
+      <style:text-properties style:use-window-font-color="true" loext:opacity="0%" fo:font-family="'Liberation Serif'" style:font-family-generic="roman" style:font-pitch="variable" fo:font-size="12pt" fo:language="en" fo:country="US" style:letter-kerning="true" style:font-family-asian="游明朝" style:font-family-generic-asian="system" style:font-pitch-asian="variable" style:font-size-asian="12pt" style:language-asian="ja" style:country-asian="JP" style:font-family-complex="Tahoma" style:font-family-generic-complex="system" style:font-pitch-complex="variable" style:font-size-complex="12pt" style:language-complex="hi" style:country-complex="IN"/>
+    </style:default-style>
     <number:number-style style:name="N0">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
@@ -265,13 +1721,14 @@
     <style:style style:name="Result" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties fo:color="#000000" fo:font-size="10pt" fo:font-style="italic" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="#000000" fo:font-weight="bold"/>
     </style:style>
+    <draw:stroke-dash draw:name="Dash" draw:style="rect" draw:dots1="1" draw:dots1-length="197%" draw:distance="127%"/>
   </office:styles>
   <office:automatic-styles>
     <number:number-style style:name="N2">
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1"/>
     </number:number-style>
     <style:page-layout style:name="Mpm1">
-      <style:page-layout-properties style:writing-mode="lr-tb"/>
+      <style:page-layout-properties style:scale-to-X="1" style:scale-to-Y="1" style:writing-mode="lr-tb"/>
       <style:header-style>
         <style:header-footer-properties fo:min-height="0.75cm" fo:margin-left="0cm" fo:margin-right="0cm" fo:margin-bottom="0.25cm"/>
       </style:header-style>
@@ -295,14 +1752,14 @@
   </office:automatic-styles>
   <office:master-styles>
     <style:master-page style:name="Default" style:page-layout-name="Mpm1">
-      <style:header>
+      <style:header style:display="false">
         <text:p>
           <text:sheet-name>???</text:sheet-name>
         </text:p>
       </style:header>
       <style:header-left style:display="false"/>
       <style:header-first style:display="false"/>
-      <style:footer>
+      <style:footer style:display="false">
         <text:p>
           ページ 
           <text:page-number>1</text:page-number>
@@ -312,7 +1769,7 @@
       <style:footer-first style:display="false"/>
     </style:master-page>
     <style:master-page style:name="Report" style:page-layout-name="Mpm2">
-      <style:header>
+      <style:header style:display="false">
         <style:region-left>
           <text:p>
             <text:sheet-name>???</text:sheet-name>
@@ -324,15 +1781,15 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2021-11-06">0000/00/00</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2021-11-07">0000/00/00</text:date>
             , 
-            <text:time>00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="06:45:21.442000000">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
       <style:header-left style:display="false"/>
       <style:header-first style:display="false"/>
-      <style:footer>
+      <style:footer style:display="false">
         <text:p>
           ページ 
           <text:page-number>1</text:page-number>
